--- a/data/hlm/hlm_train_data.xlsx
+++ b/data/hlm/hlm_train_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF9C12-247C-490B-8E57-4A975D03E53F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E63914A-3251-4B09-ACC6-54A2CFAFC8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="828" windowWidth="13068" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="732" windowWidth="13068" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="erosion" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>腐蚀率(mm/a)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年均温度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,26 @@
   </si>
   <si>
     <t>站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦煌 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,16 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -470,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.43</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -484,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.35399999999999998</v>
+        <v>0.314</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -498,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.32600000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,13 +528,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.55900000000000005</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.49</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.55900000000000005</v>
+        <v>0.435</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.56599999999999995</v>
+        <v>0.53</v>
       </c>
       <c r="C8">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,13 +584,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.46500000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,13 +598,27 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.61599999999999999</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="C11">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -602,33 +632,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -636,30 +669,29 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.13</v>
+        <v>11.3</v>
       </c>
       <c r="C2">
-        <v>0.51</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>0.48799999999999999</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>0.59</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0.16200000000000001</v>
+        <v>2632</v>
       </c>
       <c r="G2">
-        <v>0.46529999999999999</v>
+        <v>7846</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/hlm/hlm_train_data.xlsx
+++ b/data/hlm/hlm_train_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E63914A-3251-4B09-ACC6-54A2CFAFC8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853297BA-AC96-4CC1-9F30-62995E28BF0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="732" windowWidth="13068" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="288" windowWidth="14700" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="erosion" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
